--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_14-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_14-58.xlsx
@@ -32,6 +32,15 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>BIOVIT 12 DEPOT 2 AMP</t>
   </si>
   <si>
@@ -44,9 +53,6 @@
     <t xml:space="preserve">BONDIGA 120ML  SYRUP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
   </si>
   <si>
     <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
@@ -763,7 +772,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>-28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -789,11 +798,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -801,7 +810,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -809,17 +818,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -835,13 +844,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -853,7 +862,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -861,17 +870,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -893,7 +902,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -913,17 +922,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -939,17 +948,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,7 +966,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -965,17 +974,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -983,7 +992,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -991,17 +1000,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1017,13 +1026,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>50</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1035,7 +1044,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1043,17 +1052,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1069,13 +1078,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1087,7 +1096,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1101,11 +1110,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1113,7 +1122,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1121,17 +1130,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>-57</v>
+        <v>55</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1139,7 +1148,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1147,17 +1156,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>31</v>
+        <v>-57</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1165,7 +1174,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1173,17 +1182,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1191,7 +1200,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1199,17 +1208,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>45.5</v>
+        <v>31</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1225,13 +1234,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1251,13 +1260,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>122</v>
+        <v>45.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1269,7 +1278,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1277,17 +1286,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1303,17 +1312,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1321,7 +1330,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1329,13 +1338,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1361,11 +1370,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1381,17 +1390,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1399,7 +1408,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1407,17 +1416,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1425,7 +1434,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1433,17 +1442,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1451,7 +1460,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1459,17 +1468,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>68.599999999999994</v>
+        <v>150</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1477,7 +1486,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1485,51 +1494,103 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
-      <c r="K33" s="10">
-        <v>1261.77</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" ht="17.25" customHeight="1">
-      <c t="s" r="A34" s="11">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="7">
         <v>52</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c t="s" r="F34" s="12">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c t="s" r="H33" s="8">
+        <v>12</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c t="s" r="N33" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>53</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c t="s" r="I34" s="14">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
         <v>54</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>70</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="26.25" customHeight="1">
+      <c r="K35" s="10">
+        <v>1333.77</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="11">
+        <v>55</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c t="s" r="F36" s="12">
+        <v>56</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c t="s" r="I36" s="14">
+        <v>57</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="104">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1624,10 +1685,16 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
